--- a/trunk/Doprava a platba - texty pro mail.xlsx
+++ b/trunk/Doprava a platba - texty pro mail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="19320" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Dobírka</t>
   </si>
@@ -46,17 +46,6 @@
   </si>
   <si>
     <t>GLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zásilka PPL CZ (120,- Kč). Platí se v hotovosti při předání zboží kurýrem PPL CZ. 
-Zboží je obvykle doručeno do 24h od expedice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zásilka PPL CZ. Platí se v hotovosti při předání zboží kurýrem PPL CZ.
-Přeprava zdarma. Cena objednávky je vyšší než 10000,- Kč. 
-Zboží je obvykle doručeno do 24h od expedice.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Převod na účet. Zásilka PPL CZ (90,- Kč)
@@ -64,91 +53,101 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Převod na účet. Zásilka PPL CZ. 
+    <t>CZ maloobchod - přeprava zdarma (od 3000,- s DPH)</t>
+  </si>
+  <si>
+    <t>CZ velkoobchod - přeprava zdarma (od 10000,- bez DPH)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Bank transfer
+We will send you proforma invoice showing exact freight cost. Payment according to the proforma invoicem, either via SWIFT or PayPal (details on the proforma invoice). We send the goods as soon as the payment is confirmed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotově. Osobní odběr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobírka. Zásilka PPL CZ (120,- Kč)
+Platí se v hotovosti při předání zboží kurýrem PPL CZ. 
+Zboží je obvykle doručeno do 24h od expedice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PayPal. Zásilka PPL CZ (90,- Kč + poplatek)
+Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.
+Zboží je obvykle doručeno do 24h od expedice. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Převod na účet. Zásilka PPL CZ
 Přeprava zdarma. Cena objednávky je vyšší než 10000,- Kč. 
 Zboží je obvykle doručeno do 24h od expedice. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zásilka PPL CZ (90,- Kč + poplatek)
-Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.
-Zboží je obvykle doručeno do 24h od expedice. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PayPal: Zásilka PPL CZ (0,-Kč + poplatek). 
+    <t xml:space="preserve">PayPal. Zásilka PPL CZ (0,-Kč + poplatek)
 Přeprava zdarma. Cena objednávky je vyšší než 10000,- Kč. 
 Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.
 Zboží je obvykle doručeno do 24h od expedice.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zásilka PPL CZ (130,- Kč). Platí se v hotovosti při předání zboží kurýrem PPL CZ. 
+    <t xml:space="preserve">Dobírka. Zásilka PPL CZ
+Přeprava zdarma. Cena objednávky je vyšší než 10000,- Kč. 
+Platí se v hotovosti při předání zboží kurýrem PPL CZ.
+Zboží je obvykle doručeno do 24h od expedice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobírka. Zásilka PPL CZ
+Přeprava zdarma. Cena objednávky je vyšší než 3000,- Kč. 
+Platí se v hotovosti při předání zboží kurýrem PPL CZ.
 Zboží je obvykle doručeno do 24h od expedice. 
 </t>
   </si>
   <si>
-    <t>CZ maloobchod - přeprava zdarma (od 3000,- s DPH)</t>
-  </si>
-  <si>
-    <t>CZ velkoobchod - přeprava zdarma (od 10000,- bez DPH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zásilka PPL CZ. Platí se v hotovosti při předání zboží kurýrem PPL CZ.
-Přeprava zdarma. Cena objednávky je vyšší než 3000,- Kč. 
-Zboží je obvykle doručeno do 24h od expedice. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Převod na účet. Zásilka PPL CZ (100,- Kč).
-Zboží je obvykle doručeno do 24h od expedice. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Převod na účet. Zásilka PPL CZ. 
-Přeprava zdarma. Cena objednávky je vyšší než 3000,- Kč. 
-Zboží je obvykle doručeno do 24h od expedice. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zásilka PPL CZ (100,- Kč + poplatek).
-Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.
-Zboží je obvykle doručeno do 24h od expedice. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zásilka PPL CZ (0,-Kč + poplatek). 
+    <t xml:space="preserve">PayPal. Zásilka PPL CZ (0,-Kč + poplatek)
 Přeprava zdarma. Cena objednávky je vyšší než 3000,- Kč. 
 Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.
 Zboží je obvykle doručeno do 24h od expedice.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Doručení PPL CZ/DHL Express Slovakia (od 220,- Kč podle hmotnosti). 
-Zásilka bude předána dopravci po přijetí platby. Zboží je obvykle doručeno do 48h od expedice. 
-Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu. 
-</t>
-  </si>
-  <si>
-    <t>Doručení PPL CZ/DHL Express Slovakia (od 220,- Kč podle hmotnosti + poplatek). 
-Zásilka bude předána dopravci po přijetí platby. Zboží je obvykle doručeno do 48h od expedice.
-Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Bank transfer
-We will send you proforma invoice showing exact freight cost. Payment according to the proforma invoicem, either via SWIFT or PayPal (details on the proforma invoice). We send the goods as soon as the payment is confirmed.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Doručení PPL CZ/DHL Express Slovakia (od 280,- Kč podle hmotnosti a dobírkové částky).
+    <t xml:space="preserve">Dobírka. Zásilka PPL CZ (130,- Kč)
+Platí se v hotovosti při předání zboží kurýrem PPL CZ. 
+Zboží je obvykle doručeno do 24h od expedice. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PayPal. Zásilka PPL CZ (100,- Kč + poplatek)
+Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.
+Zboží je obvykle doručeno do 24h od expedice. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Převod na účet. Zásilka PPL CZ (100,- Kč)
+Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.
+Zboží je obvykle doručeno do 24h od expedice. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Převod na účet. Zásilka PPL CZ 
+Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.
+Přeprava zdarma. Cena objednávky je vyšší než 3000,- Kč. 
+Zboží je obvykle doručeno do 24h od expedice. 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dobírka. Doručení PPL CZ/DHL Express Slovakia (od 280,- Kč podle hmotnosti a dobírkové částky).
 Zásilka bude předána dopravci v </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
@@ -159,7 +158,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
@@ -173,14 +171,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Doručení GLS (od 212,- Kč podle hmotnosti a dobírkové částky).
+      <t xml:space="preserve">Dobírka. Doručení GLS (od 212,- Kč podle hmotnosti a dobírkové částky).
 Zásilka bude předána dopravci </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
@@ -191,7 +188,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
@@ -204,15 +200,21 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Doručení GLS (od 170,- Kč podle hmotnosti). 
+    <t xml:space="preserve">Převod. Doručení PPL CZ/DHL Express Slovakia (od 220,- Kč podle hmotnosti). 
+Zásilka bude předána dopravci po přijetí platby. 
+Zboží je obvykle doručeno do 48h od expedice. 
+Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu. 
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Převod. Doručení GLS (od 170,- Kč podle hmotnosti). 
 Zásilka bude předána dopravci</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
@@ -223,26 +225,31 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> po přijetí platby. Zboží je obvykle doručeno do 48h od expedice. 
+      <t xml:space="preserve"> po přijetí platby. 
+Zboží je obvykle doručeno do 48h od expedice. 
 Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu. </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Doručení GLS (od 170,- Kč podle hmotnosti + poplatek). 
+    <t>PayPal. Doručení PPL CZ/DHL Express Slovakia (od 220,- Kč podle hmotnosti + poplatek). 
+Zásilka bude předána dopravci po přijetí platby. 
+Zboží je obvykle doručeno do 48h od expedice.
+Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PayPal. Doručení GLS (od 170,- Kč podle hmotnosti + poplatek). 
 Zásilka bude předána dopravci </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
@@ -253,13 +260,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> po přijetí platby. Zboží je obvykle doručeno do 48h od expedice.
+      <t xml:space="preserve"> po přijetí platby. 
+Zboží je obvykle doručeno do 48h od expedice.
 Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu. 
 </t>
     </r>
@@ -269,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,9 +294,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -322,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -330,13 +343,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -647,7 +666,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,186 +678,212 @@
     <col min="5" max="5" width="38.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Doprava a platba - texty pro mail.xlsx
+++ b/trunk/Doprava a platba - texty pro mail.xlsx
@@ -170,36 +170,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Dobírka. Doručení GLS (od 212,- Kč podle hmotnosti a dobírkové částky).
-Zásilka bude předána dopravci </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>následující pracovní den</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> přijetí objednávky. 
-Zboží je obvykle doručeno do 48h od expedice. Platí se v hotovosti při předání zboží kurýrem GLS.
-Poznámka: Dobírková částka v EUR se bude mírně lišit od částky uvedené na objednávce v závislosti na kursu.
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Převod. Doručení PPL CZ/DHL Express Slovakia (od 220,- Kč podle hmotnosti). 
 Zásilka bude předána dopravci po přijetí platby. 
 Zboží je obvykle doručeno do 48h od expedice. 
@@ -271,12 +241,44 @@
 </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dobírka. Doručení GLS (od 212,- Kč podle hmotnosti a dobírkové částky).
+Zásilka bude předána dopravci </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>následující pracovní den</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> přijetí objednávky. 
+Zboží je obvykle doručeno do 48h od expedice. Platí se v hotovosti při předání zboží kurýrem GLS.
+Poznámka: Dobírková částka v EUR se bude mírně lišit od částky uvedené na objednávce v závislosti na kursu.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +305,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -335,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -360,6 +379,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,7 +691,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,10 +746,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
@@ -821,20 +846,20 @@
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
@@ -864,6 +889,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B2:C2"/>
@@ -880,10 +909,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Doprava a platba - texty pro mail.xlsx
+++ b/trunk/Doprava a platba - texty pro mail.xlsx
@@ -354,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -374,6 +374,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -381,10 +384,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,7 +694,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,53 +711,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -762,18 +765,18 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
@@ -782,18 +785,18 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
@@ -802,18 +805,18 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
@@ -846,7 +849,7 @@
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -875,20 +878,24 @@
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -905,10 +912,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Doprava a platba - texty pro mail.xlsx
+++ b/trunk/Doprava a platba - texty pro mail.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Homer\Documents\horejsidoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="19320" windowHeight="12270"/>
   </bookViews>
@@ -377,17 +382,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -400,12 +405,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Kancelář">
       <a:dk1>
@@ -447,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,7 +702,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,53 +719,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -765,18 +773,18 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
@@ -785,18 +793,18 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
@@ -805,18 +813,18 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
@@ -878,25 +886,20 @@
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -912,6 +915,11 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Doprava a platba - texty pro mail.xlsx
+++ b/trunk/Doprava a platba - texty pro mail.xlsx
@@ -385,10 +385,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -702,7 +702,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,10 +760,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
@@ -777,14 +780,14 @@
         <v>21</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
@@ -793,18 +796,18 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
@@ -813,18 +816,18 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
@@ -900,9 +903,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B2:C2"/>
@@ -920,6 +920,9 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Doprava a platba - texty pro mail.xlsx
+++ b/trunk/Doprava a platba - texty pro mail.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Homer\Documents\horejsidoc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="19320" windowHeight="12270"/>
   </bookViews>
@@ -182,35 +177,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>Převod. Doručení GLS (od 170,- Kč podle hmotnosti). 
-Zásilka bude předána dopravci</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> následující pracovní den</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> po přijetí platby. 
-Zboží je obvykle doručeno do 48h od expedice. 
-Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu. </t>
-    </r>
-  </si>
-  <si>
     <t>PayPal. Doručení PPL CZ/DHL Express Slovakia (od 220,- Kč podle hmotnosti + poplatek). 
 Zásilka bude předána dopravci po přijetí platby. 
 Zboží je obvykle doručeno do 48h od expedice.
@@ -276,6 +242,37 @@
 Zboží je obvykle doručeno do 48h od expedice. Platí se v hotovosti při předání zboží kurýrem GLS.
 Poznámka: Dobírková částka v EUR se bude mírně lišit od částky uvedené na objednávce v závislosti na kursu.
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Převod. Doručení GLS (od 170,- Kč podle hmotnosti). 
+Zásilka bude předána dopravci</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> následující pracovní den</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> po přijetí platby. 
+Zboží je obvykle doručeno do 48h od expedice. 
+Fakturu s platebními údaji obdržíte na Váš e-mail. Teprve pak proveďte platbu. </t>
     </r>
   </si>
 </sst>
@@ -385,14 +382,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -413,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
     <a:clrScheme name="Kancelář">
       <a:dk1>
@@ -455,7 +452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,7 +487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,7 +702,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:C5"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,52 +719,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
@@ -776,18 +773,18 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
@@ -796,18 +793,18 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
@@ -816,18 +813,18 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
@@ -861,19 +858,19 @@
         <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
@@ -889,20 +886,28 @@
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B2:C2"/>
@@ -915,14 +920,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
